--- a/input_files/Makie_Questions.xlsx
+++ b/input_files/Makie_Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominiccalleja/GCA_App/GCA_engine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominiccalleja/GCA_App/GCA_engine/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD12C2C-19C2-6F45-8514-B517B5C3FD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C55DB46-1F4C-CB4A-9A0D-266B492D09C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{D3E060A1-2AB8-F048-B1EB-8CED33EEE42D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D3E060A1-2AB8-F048-B1EB-8CED33EEE42D}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaire" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>Qid</t>
   </si>
@@ -100,57 +100,30 @@
     <t>are these cumulative? If im over 80 is it yes to all</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you have a headache? </t>
-  </si>
-  <si>
     <t>Cranial symptoms</t>
   </si>
   <si>
-    <t>Is your headache temporal?</t>
-  </si>
-  <si>
     <t>A severe, throbbing, and/or burning sensation at the temple on one or both sides of the head.</t>
   </si>
   <si>
-    <t>Do you have any tenderness of the scalp?</t>
-  </si>
-  <si>
     <t>Scalp tenderness is defined as pain, inflammation, tingling, numbness, irritation, itching, throbbing, or sensitivity of the scalp.</t>
   </si>
   <si>
-    <t>Do you have any jaw ﻿claudication?</t>
-  </si>
-  <si>
     <t>Jaw claudication is noted as fatigue or discomfort of the jaw muscles during chewing of firm foods such as meat, chewing gum, or prolonged speaking.</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you have any abnormal visual disturbances? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any loss of vison? </t>
-  </si>
-  <si>
-    <t>Is the loss of vision complete?</t>
-  </si>
-  <si>
     <t>Vision loss is the degredation of your ability to see without some sort of vision correction in addition to any normal vision aids you may use.</t>
   </si>
   <si>
     <t xml:space="preserve">Complete loss of vision in either eye is a degredation to the point you are unable to resolve objects even with the support of your usual vision corrective equipment. </t>
   </si>
   <si>
-    <t xml:space="preserve">Is your loss of vision transient? </t>
-  </si>
-  <si>
     <t>I've added this. Seemed reasonable and an extension to the previous question.</t>
   </si>
   <si>
     <t xml:space="preserve">Transient vision loss is a degredation to your usual vision that is temporary. It comes and goes, or it occurred once or twice for a brief period of time. </t>
   </si>
   <si>
-    <t xml:space="preserve">Do you have any double vision? </t>
-  </si>
-  <si>
     <t>Double vision is a blurring or the appearance of multiple copies of the same object?</t>
   </si>
   <si>
@@ -166,9 +139,6 @@
     <t>Cerebrovascular accident (CVA) is the medical term for a stroke. A stroke is when blood flow to a part of your brain is stopped either by a blockage or the rupture of a blood vessel.</t>
   </si>
   <si>
-    <t>Do you have any history of cerebrovascular accidents (stroke)?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Is this dependent on the cranial or vision loss symptoms? </t>
   </si>
   <si>
@@ -178,12 +148,6 @@
     <t>Constitutional symptoms are a broad class of non-specific syptoms that affect one's sense of well-being. The symptoms include weight loss, headache, pain, fatigue, loss of appetite, night sweats, and malaise.</t>
   </si>
   <si>
-    <t>Do you have any constitutional type symptoms? (how do you feel generally)</t>
-  </si>
-  <si>
-    <t>Signs of malaise?</t>
-  </si>
-  <si>
     <t>Malaise is a feeling of weakness, overall discomfort, illness, or simply not feeling well.</t>
   </si>
   <si>
@@ -193,39 +157,18 @@
     <t>People who have anorexia try to keep their weight as low as possible by not eating enough food or exercising too much, or both.</t>
   </si>
   <si>
-    <t>Any recent weight loss?</t>
-  </si>
-  <si>
-    <t>Do you have a fever?</t>
-  </si>
-  <si>
     <t>Other symptoms</t>
   </si>
   <si>
     <t>Myalgia describes muscle aches and pain, which can involve ligaments, tendons and fascia, the soft tissues that connect muscles, bones and organs.</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you have any Myalgia (Muscular aches and pains)? </t>
-  </si>
-  <si>
     <t>PMR (Polymyalgia Rheumatica) is an inflammatory disorder that causes muscle pain and stiffness, especially in the shoulders and hips.</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you have any signs of PMR? </t>
-  </si>
-  <si>
     <t>Dependent on 5006?</t>
   </si>
   <si>
-    <t>Do you have any history of PMR?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have any Arthralgia (Joint stifness)? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have any limb claudiaction? </t>
-  </si>
-  <si>
     <t>Claudication of the libs is a pain in the legs or arms that comes on with walking or when using your arms.</t>
   </si>
   <si>
@@ -235,24 +178,12 @@
     <t>Physical findings</t>
   </si>
   <si>
-    <t xml:space="preserve">Any temporal artery abnormality? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Upon clinical inspection are there any signs of abnormality? </t>
   </si>
   <si>
-    <t>Any tenderness of the temporals?</t>
-  </si>
-  <si>
     <t>Does the patient complain of discomfort or tenderness upon clinical inspection?</t>
   </si>
   <si>
-    <t>Any sign of temporal artery thickening?</t>
-  </si>
-  <si>
-    <t>Any loss of pulse in the temporal artery?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ignoring the temporal artery tenderness one. </t>
   </si>
   <si>
@@ -262,30 +193,12 @@
     <t>ION (Ischemic optic neuropathy) is when blood does not flow properly to your eye's optic nerve, eventually causing lasting damage to this nerve.</t>
   </si>
   <si>
-    <t>Does the patient have a sudden loss of vision?</t>
-  </si>
-  <si>
-    <t>Is it AION?</t>
-  </si>
-  <si>
-    <t>Is it ION?</t>
-  </si>
-  <si>
     <t>CRAO (Central retinal artery occlusion ) is a disease of the eye where the flow of blood through the central retinal artery is blocked (occluded)</t>
   </si>
   <si>
-    <t>Is it CRAO?</t>
-  </si>
-  <si>
     <t>Laboratory findings</t>
   </si>
   <si>
-    <t>Is the patient Anemic?</t>
-  </si>
-  <si>
-    <t>Have you tested CRP levels?</t>
-  </si>
-  <si>
     <t>Have you tested ESR levels?</t>
   </si>
   <si>
@@ -301,9 +214,6 @@
     <t>&gt;100</t>
   </si>
   <si>
-    <t>What is the patients ESR ( mm/h)?</t>
-  </si>
-  <si>
     <t>&gt;50</t>
   </si>
   <si>
@@ -313,15 +223,9 @@
     <t>&gt;25</t>
   </si>
   <si>
-    <t>What is the patients CRP (mg/L)?</t>
-  </si>
-  <si>
     <t>&gt;1</t>
   </si>
   <si>
-    <t>Have you taken a platlet count (E3 /muL)?</t>
-  </si>
-  <si>
     <t>&gt;400</t>
   </si>
   <si>
@@ -337,17 +241,131 @@
     <t>Dependant</t>
   </si>
   <si>
-    <t>Are you done</t>
-  </si>
-  <si>
-    <t>Do you suffer from Anorexia?</t>
+    <t xml:space="preserve">Any headache? </t>
+  </si>
+  <si>
+    <t>headache in the temporal region?</t>
+  </si>
+  <si>
+    <t>any tenderness of the scalp?</t>
+  </si>
+  <si>
+    <t>any jaw ﻿claudication?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any abnormal visual disturbances? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any loss of vison? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">transient loss of vision (amaurosis fugax)?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any double vision? </t>
+  </si>
+  <si>
+    <t>history of cerebrovascular accidents (ischaemic stroke)?</t>
+  </si>
+  <si>
+    <t>permanent loss of vision (in either/both eye)?</t>
+  </si>
+  <si>
+    <t>any malaise?</t>
+  </si>
+  <si>
+    <t>any constitutional type symptoms? (how do you feel generally)</t>
+  </si>
+  <si>
+    <t>any loss of appetite ?</t>
+  </si>
+  <si>
+    <t>any recent weight loss?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually in medium vessel vasculitis &gt;2kg </t>
+  </si>
+  <si>
+    <t>Can we define this more clearly</t>
+  </si>
+  <si>
+    <t>do you have a fever?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any Arthralgia (Joint stifness)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any Myalgia (Muscular aches and pains)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any signs of PMR? </t>
+  </si>
+  <si>
+    <t>any history of PMR?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any limb claudiaction? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any temporal artery abnormality? </t>
+  </si>
+  <si>
+    <t>any tenderness of the temporal region?</t>
+  </si>
+  <si>
+    <t>any temporal artery thickening?</t>
+  </si>
+  <si>
+    <t>loss of pulse in the temporal artery?</t>
+  </si>
+  <si>
+    <t>Cant be answered by a reum</t>
+  </si>
+  <si>
+    <t>loss of vision due to AION?</t>
+  </si>
+  <si>
+    <t>loss of vision due to ION?</t>
+  </si>
+  <si>
+    <t>loss of vision due to CRAO?</t>
+  </si>
+  <si>
+    <t>Haemaglobin</t>
+  </si>
+  <si>
+    <t>&gt;120</t>
+  </si>
+  <si>
+    <t>Anemia?</t>
+  </si>
+  <si>
+    <t>Remove additional binary</t>
+  </si>
+  <si>
+    <t>CRP?</t>
+  </si>
+  <si>
+    <t>CRP (mg/L)?</t>
+  </si>
+  <si>
+    <t>Give units</t>
+  </si>
+  <si>
+    <t>ESR (mm/h)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;20mm/hr for men :&amp; &gt;30mm/hr for women </t>
+  </si>
+  <si>
+    <t>Have you taken a platlet count (1000/muL)?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,8 +395,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +434,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -423,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -431,6 +462,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -746,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF3C665-8C67-8A4B-ABC6-3E7E68038EC4}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="219" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -788,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -956,10 +989,10 @@
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -967,7 +1000,7 @@
         <v>3000</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -996,7 +1029,7 @@
         <v>3001</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1005,7 +1038,7 @@
         <v>3000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>0.82</v>
@@ -1031,13 +1064,13 @@
         <v>3002</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>1.4</v>
@@ -1063,13 +1096,13 @@
         <v>3003</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>3.74</v>
@@ -1095,7 +1128,7 @@
         <v>3004</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1124,7 +1157,7 @@
         <v>3005</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1133,7 +1166,7 @@
         <v>3004</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>1.1499999999999999</v>
@@ -1159,7 +1192,7 @@
         <v>3006</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1168,7 +1201,7 @@
         <v>3005</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1189,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1197,7 +1230,7 @@
         <v>3007</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1206,7 +1239,7 @@
         <v>3005</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>0.88</v>
@@ -1232,7 +1265,7 @@
         <v>3008</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1241,7 +1274,7 @@
         <v>3005</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>1.1200000000000001</v>
@@ -1267,7 +1300,7 @@
         <v>3009</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1294,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1302,13 +1335,13 @@
         <v>3010</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <v>0.25</v>
@@ -1329,15 +1362,15 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1345,13 +1378,13 @@
         <v>4001</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1377,7 +1410,7 @@
         <v>4002</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -1386,7 +1419,7 @@
         <v>4001</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1407,7 +1440,7 @@
         <v>0.86</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1415,7 +1448,7 @@
         <v>4003</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1424,7 +1457,7 @@
         <v>4001</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F22">
         <v>1.33</v>
@@ -1450,7 +1483,7 @@
         <v>4004</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -1458,6 +1491,9 @@
       <c r="D23">
         <v>4001</v>
       </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
       <c r="F23">
         <v>1.44</v>
       </c>
@@ -1475,6 +1511,9 @@
       </c>
       <c r="K23" s="4">
         <v>0.79</v>
+      </c>
+      <c r="N23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1482,7 +1521,7 @@
         <v>4005</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -1511,10 +1550,10 @@
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1522,7 +1561,7 @@
         <v>5006</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -1551,13 +1590,13 @@
         <v>5007</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>0.75</v>
@@ -1583,13 +1622,13 @@
         <v>5008</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F28">
         <v>1.08</v>
@@ -1610,7 +1649,7 @@
         <v>0.9</v>
       </c>
       <c r="N28" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1618,13 +1657,13 @@
         <v>5009</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F29">
         <v>0.92</v>
@@ -1650,13 +1689,13 @@
         <v>5010</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>1.38</v>
@@ -1679,10 +1718,10 @@
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1690,13 +1729,13 @@
         <v>6001</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>1.61</v>
@@ -1717,18 +1756,18 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6002</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>1.1399999999999999</v>
@@ -1749,15 +1788,15 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="N33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6003</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -1781,12 +1820,12 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6004</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
@@ -1810,501 +1849,500 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>6005</v>
+        <v>6006</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
+      <c r="D36" s="7">
+        <v>3005</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
       <c r="F36">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3.03</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="J36" s="4">
-        <v>1</v>
+        <v>2.15</v>
       </c>
       <c r="K36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.86</v>
+      </c>
+      <c r="N36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>6006</v>
+        <v>6007</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D37">
-        <v>6005</v>
+      <c r="D37" s="7">
+        <v>3005</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F37">
-        <v>1.53</v>
+        <v>0.86</v>
       </c>
       <c r="G37">
-        <v>3.03</v>
+        <v>3.49</v>
       </c>
       <c r="H37">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="I37">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="J37" s="4">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="K37" s="4">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>6007</v>
+        <v>6008</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38">
-        <v>6006</v>
+      <c r="D38" s="7">
+        <v>3005</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F38">
-        <v>0.86</v>
+        <v>0.49</v>
       </c>
       <c r="G38">
-        <v>3.49</v>
+        <v>4.53</v>
       </c>
       <c r="H38">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="I38">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J38" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>7001</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G40">
+        <v>1.36</v>
+      </c>
+      <c r="H40">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="I40">
+        <v>0.92</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7022</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>7015</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>7016</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="6">
+        <v>7015</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44">
+        <v>2.12</v>
+      </c>
+      <c r="G44">
+        <v>6.64</v>
+      </c>
+      <c r="H44">
+        <v>0.47</v>
+      </c>
+      <c r="I44">
+        <v>0.8</v>
+      </c>
+      <c r="J44" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7003</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7005</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>1.2</v>
+      </c>
+      <c r="G47">
+        <v>1.35</v>
+      </c>
+      <c r="H47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7006</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>1.41</v>
+      </c>
+      <c r="G48">
+        <v>2.12</v>
+      </c>
+      <c r="H48">
+        <v>0.25</v>
+      </c>
+      <c r="I48">
+        <v>0.59</v>
+      </c>
+      <c r="J48" s="4">
         <v>1.73</v>
       </c>
-      <c r="K38" s="4">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>6008</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39">
-        <v>6007</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39">
-        <v>0.49</v>
-      </c>
-      <c r="G39">
-        <v>4.53</v>
-      </c>
-      <c r="H39">
-        <v>0.93</v>
-      </c>
-      <c r="I39">
-        <v>1.03</v>
-      </c>
-      <c r="J39" s="4">
-        <v>1.49</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>7001</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G41">
-        <v>1.36</v>
-      </c>
-      <c r="H41">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="I41">
-        <v>0.92</v>
-      </c>
-      <c r="J41" s="4">
-        <v>1.22</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>7002</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>7003</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4">
-        <v>1</v>
-      </c>
-      <c r="K43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>7005</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <v>7004</v>
-      </c>
-      <c r="F44">
-        <v>1.2</v>
-      </c>
-      <c r="G44">
-        <v>1.35</v>
-      </c>
-      <c r="H44">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I44">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1.27</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>7006</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>7004</v>
-      </c>
-      <c r="F45">
-        <v>1.41</v>
-      </c>
-      <c r="G45">
-        <v>2.12</v>
-      </c>
-      <c r="H45">
-        <v>0.25</v>
-      </c>
-      <c r="I45">
-        <v>0.59</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1.73</v>
-      </c>
-      <c r="K45" s="4">
+      <c r="K48" s="4">
         <v>0.38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>7007</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
-      <c r="K46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>7008</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="5">
-        <v>7007</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G47">
-        <v>1.39</v>
-      </c>
-      <c r="H47">
-        <v>0.37</v>
-      </c>
-      <c r="I47">
-        <v>0.71</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>7009</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="5">
-        <v>7008</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>7010</v>
+        <v>7007</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="5">
-        <v>7008</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49">
-        <v>1.1599999999999999</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>1.92</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4">
-        <v>1.49</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4">
-        <v>0.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>7011</v>
+        <v>7008</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D50" s="5">
-        <v>7008</v>
-      </c>
-      <c r="E50" s="5"/>
+        <v>7007</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="F50">
-        <v>1.22</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G50">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="H50">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I50">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="J50" s="4">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="K50" s="4">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>7012</v>
+        <v>7009</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="5">
         <v>7008</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>3.36</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4">
-        <v>0.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>7013</v>
+        <v>7010</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>11</v>
@@ -2314,30 +2352,30 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52">
-        <v>1.78</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G52">
-        <v>4.37</v>
+        <v>1.92</v>
       </c>
       <c r="H52">
-        <v>0.41</v>
+        <v>0.08</v>
       </c>
       <c r="I52">
-        <v>0.9</v>
+        <v>0.44</v>
       </c>
       <c r="J52" s="4">
-        <v>2.79</v>
+        <v>1.49</v>
       </c>
       <c r="K52" s="4">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>7014</v>
+        <v>7011</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>11</v>
@@ -2347,118 +2385,131 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53">
+        <v>1.22</v>
+      </c>
+      <c r="G53">
+        <v>1.6</v>
+      </c>
+      <c r="H53">
+        <v>0.38</v>
+      </c>
+      <c r="I53">
+        <v>0.62</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>7012</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="5">
+        <v>7008</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54">
+        <v>1.71</v>
+      </c>
+      <c r="G54">
+        <v>3.36</v>
+      </c>
+      <c r="H54">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I54">
+        <v>0.62</v>
+      </c>
+      <c r="J54" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>7013</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="5">
+        <v>7008</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55">
+        <v>1.78</v>
+      </c>
+      <c r="G55">
+        <v>4.37</v>
+      </c>
+      <c r="H55">
+        <v>0.41</v>
+      </c>
+      <c r="I55">
+        <v>0.9</v>
+      </c>
+      <c r="J55" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>7014</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="5">
+        <v>7008</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56">
         <v>1.43</v>
       </c>
-      <c r="G53">
+      <c r="G56">
         <v>6.78</v>
       </c>
-      <c r="H53">
+      <c r="H56">
         <v>0.7</v>
       </c>
-      <c r="I53">
+      <c r="I56">
         <v>0.96</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J56" s="4">
         <v>3.11</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K56" s="4">
         <v>0.62</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>7015</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
-        <v>7016</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="6">
-        <v>7015</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55">
-        <v>2.12</v>
-      </c>
-      <c r="G55">
-        <v>6.64</v>
-      </c>
-      <c r="H55">
-        <v>0.47</v>
-      </c>
-      <c r="I55">
-        <v>0.8</v>
-      </c>
-      <c r="J55" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>7017</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1</v>
-      </c>
-      <c r="K56" s="4">
-        <v>1</v>
-      </c>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2510,10 +2561,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -2537,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2565,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2621,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
